--- a/data/Book6.xlsx
+++ b/data/Book6.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Dropbox\Personal\DataAnalytics\BootCamp\20210219_FinalProject\Sigma-final-project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42564707-85B1-48A0-B97B-97E0B48246CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Bancos">#REF!</definedName>
   </definedNames>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Ingresos por intereses</t>
   </si>
@@ -227,12 +230,30 @@
   </si>
   <si>
     <t>SCOTIABANK CONSOLIDADO</t>
+  </si>
+  <si>
+    <t>cve_concepto</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>bank_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="####\ ##\ ##\ ##\ ##"/>
   </numFmts>
@@ -309,29 +330,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja3"/>
-      <sheetName val="Hoja4"/>
-      <sheetName val="Fórmulas"/>
-      <sheetName val="Notas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,181 +594,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>510000000000</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>510000000000</v>
+        <v>610000000000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>610000000000</v>
+        <v>620000000000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>620000000000</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>670200000000</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>670200000000</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>640000000000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>640000000000</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>670500000000</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>670500000000</v>
+        <v>671100000000</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>671100000000</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>100000000000</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>110000000000</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>110000000000</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>130100000000</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>130100000000</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>130105000000</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>130105000000</v>
+        <v>130106000000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>130106000000</v>
+        <v>130121000000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>130121000000</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>131100000000</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>131100000000</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>131101000000</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>131101000000</v>
+        <v>131199990000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>131199990000</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>131600000000</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>131600000000</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>200000000000</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>200000000000</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>210100000000</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>210100000000</v>
+        <v>211100000000</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>211100000000</v>
-      </c>
-      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Bancos</formula1>
     </dataValidation>
   </dataValidations>
@@ -779,42 +786,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="254" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -822,167 +831,167 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>102</v>
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>130</v>
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>172</v>
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>48</v>
-      </c>
-      <c r="B13">
-        <v>158</v>
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -990,13 +999,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>52</v>
-      </c>
-      <c r="B15">
-        <v>112</v>
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1004,113 +1013,127 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>72</v>
-      </c>
-      <c r="B19">
-        <v>136</v>
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>92</v>
-      </c>
-      <c r="B21">
-        <v>114</v>
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
         <v>94</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>144</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>

--- a/data/Book6.xlsx
+++ b/data/Book6.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanramirez/Library/Mobile Documents/com~apple~CloudDocs/bootcamp/Proyectos/Proyecto3/Sigma-final-project/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBDBD81-F859-3C40-9926-344995E4FC0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="bancos" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Bancos">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentManualCount="8"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Ingresos por intereses</t>
   </si>
@@ -227,16 +231,22 @@
   </si>
   <si>
     <t>SCOTIABANK CONSOLIDADO</t>
+  </si>
+  <si>
+    <t>Id_bank</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="####\ ##\ ##\ ##\ ##"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +262,13 @@
       <b/>
       <sz val="10"/>
       <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -280,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,6 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,29 +327,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja3"/>
-      <sheetName val="Hoja4"/>
-      <sheetName val="Fórmulas"/>
-      <sheetName val="Notas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,16 +591,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -770,7 +765,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Bancos</formula1>
     </dataValidation>
   </dataValidations>
@@ -779,17 +774,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1117,4 +1112,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F33522B-A404-8F47-A47E-C33DFACBCD9E}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
+        <v>40127</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7">
+        <v>130</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7">
+        <v>172</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7">
+        <v>158</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7">
+        <v>112</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7">
+        <v>40021</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7">
+        <v>136</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7">
+        <v>114</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7">
+        <v>144</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Book6.xlsx
+++ b/data/Book6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanramirez/Library/Mobile Documents/com~apple~CloudDocs/bootcamp/Proyectos/Proyecto3/Sigma-final-project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Dropbox\Personal\DataAnalytics\BootCamp\20210219_FinalProject\final\Sigma-final-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBDBD81-F859-3C40-9926-344995E4FC0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E07EC90-EB92-4FD4-BA2A-E7832ED224CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34770" yWindow="2385" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Ingresos por intereses</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>cve_concepto</t>
+  </si>
+  <si>
+    <t>descripcion</t>
   </si>
 </sst>
 </file>
@@ -592,180 +598,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>510000000000</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>510000000000</v>
+        <v>610000000000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>610000000000</v>
+        <v>620000000000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>620000000000</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>670200000000</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>670200000000</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>640000000000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>640000000000</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>670500000000</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>670500000000</v>
+        <v>671100000000</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>671100000000</v>
+        <v>100000000000</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>110000000000</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>100000000000</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>130100000000</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>110000000000</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>130105000000</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>130100000000</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>130106000000</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>130105000000</v>
+        <v>130121000000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>130106000000</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>131100000000</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>130121000000</v>
+        <v>131101000000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>131100000000</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>131199990000</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>131101000000</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>131600000000</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>131199990000</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>200000000000</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>131600000000</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>210100000000</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>200000000000</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>210100000000</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
         <v>211100000000</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Bancos</formula1>
     </dataValidation>
   </dataValidations>
@@ -781,10 +795,10 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1119,10 +1133,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
